--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-observation-blodprove</t>
+    <t>http://hl7.no/fhir/ig/hackathon/2025/StructureDefinition/mal-observation-blodprove</t>
   </si>
   <si>
     <t>Version</t>
@@ -1155,7 +1155,7 @@
     <t>mal-patient</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-patient</t>
+    <t>http://hl7.no/fhir/ig/hackathon/2025/StructureDefinition/mal-patient</t>
   </si>
   <si>
     <t>MalPatient</t>
@@ -2965,17 +2965,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="44.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.46484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="15.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2984,21 +2984,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -16610,7 +16610,7 @@
         <v>76</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>78</v>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -356,7 +356,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -474,7 +474,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -494,7 +494,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -553,7 +553,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -581,7 +581,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -606,7 +606,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -626,7 +626,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -769,7 +769,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -798,7 +798,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.note</t>
@@ -836,7 +836,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -857,13 +857,13 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -879,7 +879,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.appliesTo</t>
@@ -1022,7 +1022,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1053,7 +1053,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1069,7 +1069,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1450,7 +1450,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1529,7 +1529,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2175,7 +2175,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>Patient.multipleBirth[x]</t>
@@ -2262,7 +2262,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
@@ -2459,7 +2459,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2991,7 +2991,7 @@
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.4.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.3</t>
+    <t>0.4.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.4</t>
+    <t>0.4.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.5</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.3</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.2</t>
+    <t>1.4.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.4</t>
+    <t>1.4.5</t>
   </si>
   <si>
     <t>Name</t>
